--- a/outputs-r202/d__Archaea.xlsx
+++ b/outputs-r202/d__Archaea.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,71 +719,71 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG201.fasta</t>
+          <t>RUG031.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.413657953008742e-09</v>
+        <v>4.10025541105707e-08</v>
       </c>
       <c r="C4" t="n">
-        <v>2.029594270998538e-09</v>
+        <v>3.32388568974924e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0002468864623962907</v>
+        <v>9.349039187943904e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>6.766278348369098e-11</v>
+        <v>2.713621029490999e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0001438266956707074</v>
+        <v>3.277726185951188e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>1.882187439718187e-08</v>
+        <v>8.378644426320504e-10</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0004929316597092891</v>
+        <v>0.001218041833967136</v>
       </c>
       <c r="I4" t="n">
-        <v>2.220209071331555e-14</v>
+        <v>2.220222967046373e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>2.220209071331555e-14</v>
+        <v>2.220222967046373e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>1.008118020554945e-05</v>
+        <v>0.0001219566334057658</v>
       </c>
       <c r="L4" t="n">
-        <v>0.987040347180255</v>
+        <v>0.993854271350281</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001457122960698049</v>
+        <v>0.0001186633816315599</v>
       </c>
       <c r="N4" t="n">
-        <v>2.252102255245493e-05</v>
+        <v>0.0002153991925888881</v>
       </c>
       <c r="O4" t="n">
-        <v>3.381436550981436e-08</v>
+        <v>4.960074886753169e-08</v>
       </c>
       <c r="P4" t="n">
-        <v>2.220209071331555e-14</v>
+        <v>2.220222967046373e-14</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.220209071331555e-14</v>
+        <v>2.220222967046373e-14</v>
       </c>
       <c r="R4" t="n">
-        <v>2.220209071331555e-14</v>
+        <v>2.220222967046373e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01057949927180044</v>
+        <v>0.00359224959556601</v>
       </c>
       <c r="T4" t="n">
-        <v>6.721419424129327e-06</v>
+        <v>0.0008365965195395969</v>
       </c>
       <c r="U4" t="n">
-        <v>2.220209071331555e-14</v>
+        <v>2.220222967046373e-14</v>
       </c>
       <c r="V4" t="n">
-        <v>0.987040347180255</v>
+        <v>0.993854271350281</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -799,71 +799,71 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG344.fasta</t>
+          <t>RUG076.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.346200188696094e-09</v>
+        <v>6.688724009666136e-07</v>
       </c>
       <c r="C5" t="n">
-        <v>2.335469065818013e-06</v>
+        <v>1.500761867648566e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>1.860647141994194e-06</v>
+        <v>1.453289579764098e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>5.113536893599019e-13</v>
+        <v>4.38926667436278e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>7.879739989046989e-06</v>
+        <v>0.0007830379743269265</v>
       </c>
       <c r="G5" t="n">
-        <v>1.087748010720421e-09</v>
+        <v>6.223235562998712e-08</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02596241123818837</v>
+        <v>0.0001596645028034083</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220172674699054e-14</v>
+        <v>2.220233009677828e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>5.406439168335739e-11</v>
+        <v>3.42142849816207e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00029065471899428</v>
+        <v>1.13864648670438e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9687903084082942</v>
+        <v>0.986868919144929</v>
       </c>
       <c r="M5" t="n">
-        <v>3.251647585304547e-06</v>
+        <v>0.001892612432343641</v>
       </c>
       <c r="N5" t="n">
-        <v>2.300256970327222e-05</v>
+        <v>4.768187999794472e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>3.947472782755665e-07</v>
+        <v>1.232487322978453e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>2.220172674699054e-14</v>
+        <v>2.220233009677828e-14</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.220172674699054e-14</v>
+        <v>2.220233009677828e-14</v>
       </c>
       <c r="R5" t="n">
-        <v>2.220172674699054e-14</v>
+        <v>2.220233009677828e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0005452926945917669</v>
+        <v>0.01024344537190021</v>
       </c>
       <c r="T5" t="n">
-        <v>0.004372605630532709</v>
+        <v>2.951765678587549e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>2.220172674699054e-14</v>
+        <v>2.220233009677828e-14</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9687903084082942</v>
+        <v>0.986868919144929</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -879,71 +879,71 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG545.fasta</t>
+          <t>RUG092.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.04600938914908e-08</v>
+        <v>3.600835762362938e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>1.787083543540845e-06</v>
+        <v>2.998879686576527e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>2.667165010237286e-06</v>
+        <v>7.407629050152755e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>2.485831799212646e-10</v>
+        <v>2.891996988096954e-08</v>
       </c>
       <c r="F6" t="n">
-        <v>4.492760403725934e-05</v>
+        <v>1.626443418532725e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>2.573783391160304e-10</v>
+        <v>2.694900842436162e-10</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008320292139284905</v>
+        <v>0.002011739020944481</v>
       </c>
       <c r="I6" t="n">
-        <v>2.220353603391988e-14</v>
+        <v>2.220248295797421e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>2.400014014089944e-13</v>
+        <v>2.220248295797421e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001950722502872805</v>
+        <v>0.0001742896995798187</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9846320568359698</v>
+        <v>0.9899810949685023</v>
       </c>
       <c r="M6" t="n">
-        <v>2.786111991119186e-05</v>
+        <v>5.6890729298682e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>2.422312707982798e-05</v>
+        <v>3.489748572722597e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.401925739074252e-07</v>
+        <v>1.644580175443423e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>2.220353603391988e-14</v>
+        <v>2.220248295797421e-14</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.220353603391988e-14</v>
+        <v>2.220248295797421e-14</v>
       </c>
       <c r="R6" t="n">
-        <v>2.220353603391988e-14</v>
+        <v>2.220248295797421e-14</v>
       </c>
       <c r="S6" t="n">
-        <v>0.006380067639565748</v>
+        <v>0.007169139900728184</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0003708938763299911</v>
+        <v>0.00054774658804693</v>
       </c>
       <c r="U6" t="n">
-        <v>2.220353603391988e-14</v>
+        <v>2.220248295797421e-14</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9846320568359698</v>
+        <v>0.9899810949685023</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -959,151 +959,151 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG593.fasta</t>
+          <t>RUG141.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.155745706621975e-08</v>
+        <v>0.002471518747365429</v>
       </c>
       <c r="C7" t="n">
-        <v>1.126231649410609e-05</v>
+        <v>0.0002634384039623205</v>
       </c>
       <c r="D7" t="n">
-        <v>3.000979449049378e-07</v>
+        <v>2.75605753500535e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>8.674047643389855e-11</v>
+        <v>7.699955424193285e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>1.194218021529145e-05</v>
+        <v>0.0004288864322576161</v>
       </c>
       <c r="G7" t="n">
-        <v>5.133984971511182e-10</v>
+        <v>9.195292050919746e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02014161030629942</v>
+        <v>0.5031500363205333</v>
       </c>
       <c r="I7" t="n">
-        <v>2.220232504852707e-14</v>
+        <v>8.476894545533738e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>2.946303272305521e-10</v>
+        <v>1.58451014138684e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0003012397122384943</v>
+        <v>0.02337954679001063</v>
       </c>
       <c r="L7" t="n">
-        <v>0.974950650558261</v>
+        <v>4.643051981057464e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>5.996064164354387e-05</v>
+        <v>4.918214703273101e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>9.424617979574919e-05</v>
+        <v>0.01181678819335152</v>
       </c>
       <c r="O7" t="n">
-        <v>2.625283362863982e-07</v>
+        <v>0.000219224240689892</v>
       </c>
       <c r="P7" t="n">
-        <v>2.220232504852707e-14</v>
+        <v>2.438296907881861e-10</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.220232504852707e-14</v>
+        <v>8.476894545533738e-14</v>
       </c>
       <c r="R7" t="n">
-        <v>2.220232504852707e-14</v>
+        <v>8.476894545533738e-14</v>
       </c>
       <c r="S7" t="n">
-        <v>0.004216030007548715</v>
+        <v>0.4537887979360713</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0002124830188852105</v>
+        <v>0.004300565590277689</v>
       </c>
       <c r="U7" t="n">
-        <v>2.220232504852707e-14</v>
+        <v>8.476894545533735e-14</v>
       </c>
       <c r="V7" t="n">
-        <v>0.974950650558261</v>
+        <v>0.5031500363205333</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>p__Methanobacteriota</t>
+          <t>p__Halobacteriota</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>p__Methanobacteriota</t>
+          <t>p__Halobacteriota(reject)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG648.fasta</t>
+          <t>RUG186.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.911712327759546e-08</v>
+        <v>4.583933535214388e-08</v>
       </c>
       <c r="C8" t="n">
-        <v>4.18501664320087e-08</v>
+        <v>5.978948535682442e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>4.09372259021868e-05</v>
+        <v>1.288320570805739e-06</v>
       </c>
       <c r="E8" t="n">
-        <v>8.271024677157116e-09</v>
+        <v>5.357498438875456e-08</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002765588293247827</v>
+        <v>2.023800132820722e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>4.702423234874628e-10</v>
+        <v>9.487769326498587e-10</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001711962388693072</v>
+        <v>0.0003028472526460606</v>
       </c>
       <c r="I8" t="n">
-        <v>2.220283208860405e-14</v>
+        <v>2.220248283771513e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>2.220283208860405e-14</v>
+        <v>7.437476037173479e-13</v>
       </c>
       <c r="K8" t="n">
-        <v>0.000381550164263697</v>
+        <v>4.708926473526075e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9918547326462861</v>
+        <v>0.9892876399793384</v>
       </c>
       <c r="M8" t="n">
-        <v>8.415082960048801e-05</v>
+        <v>8.229167254771607e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>1.11929912992319e-05</v>
+        <v>1.792788262387468e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>3.978086393561072e-07</v>
+        <v>3.94460325048334e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>2.220283208860405e-14</v>
+        <v>2.220248283771513e-14</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.220283208860405e-14</v>
+        <v>2.220248283771513e-14</v>
       </c>
       <c r="R8" t="n">
-        <v>2.220283208860405e-14</v>
+        <v>2.220248283771513e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>0.003885835084759621</v>
+        <v>0.007840981041218666</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001752532322541613</v>
+        <v>0.002389672669253314</v>
       </c>
       <c r="U8" t="n">
-        <v>2.220283208860405e-14</v>
+        <v>2.220248283771513e-14</v>
       </c>
       <c r="V8" t="n">
-        <v>0.9918547326462861</v>
+        <v>0.9892876399793384</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1119,80 +1119,1520 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>RUG191.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.324657831771403e-05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0008330590923691741</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.363262569393176e-06</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.353984143226639e-06</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.001846890277730626</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0004491078251492744</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.07116696560189543</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.23417479174011e-13</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.4775204116614e-06</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0008641400809316622</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.960767284374185e-06</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.02186797633464936</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.684334638188912</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.03627476326074897</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.234174791740106e-13</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.234174791740106e-13</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.234174791740105e-13</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.03054746434744788</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.1517765928758223</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3.234174791740151e-13</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.684334638188912</v>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>p__Nanoarchaeota</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>p__Nanoarchaeota(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG201.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7.413657953008742e-09</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.029594270998538e-09</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0002468864623962907</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.766278348369098e-11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0001438266956707074</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.882187439718187e-08</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0004929316597092891</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.220209071331555e-14</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.220209071331555e-14</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.008118020554945e-05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.987040347180255</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.001457122960698049</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.252102255245493e-05</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.381436550981436e-08</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.220209071331555e-14</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.220209071331555e-14</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.220209071331555e-14</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.01057949927180044</v>
+      </c>
+      <c r="T10" t="n">
+        <v>6.721419424129327e-06</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.220209071331555e-14</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.987040347180255</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG236.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.456863465299021e-08</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.935709144761657e-06</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.856206538984538e-07</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.042250183142907e-10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.930439966161532e-06</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.168555770457615e-10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01001151209624601</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.220440105391922e-14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.560426174786245e-10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0001519003959757566</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9719253531492416</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0001181029802674335</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.098417708800864e-05</v>
+      </c>
+      <c r="O11" t="n">
+        <v>7.861405744476498e-07</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.220440105391922e-14</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.220440105391922e-14</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.220440105391922e-14</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.01763592772785767</v>
+      </c>
+      <c r="T11" t="n">
+        <v>9.456611711559969e-05</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.220440105391922e-14</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.9719253531492416</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG256.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.068206761093547e-08</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.307634189519322e-07</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.422437408216643e-06</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.424631065621873e-08</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.341371015592999e-06</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.517723896796014e-10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.001053894865371465</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.220286646292433e-14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.220286646292433e-14</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0003264030010369547</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.9907887053598717</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.825591930674142e-05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9.122020671852499e-05</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8.92950590266557e-08</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.220286646292433e-14</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.220286646292433e-14</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.220286646292433e-14</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.005077619865444434</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.002620271535064383</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.220286646292433e-14</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.9907887053598717</v>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG258.fasta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9.647080588275607e-10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.779254056021093e-05</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.529628612905928e-08</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.22008646273149e-14</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.002839996892309139</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.607155452257154e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.03686975716199381</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.22008646273149e-14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6.066208201848342e-09</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0005186282273974351</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.000214042634266275</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.333341220100695e-07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.001459203582451415</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4.477417475628147e-07</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.22008646273149e-14</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.22008646273149e-14</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.22008646273149e-14</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.95805365542694</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.385763540024281e-07</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.22008646273149e-14</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.95805365542694</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG293.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.04946511509024182</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0494282211817742</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.04942964232870142</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.04942808441641259</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04942812427068386</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04953481904615828</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.04945283328876119</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.04942808422680817</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.04942809673312461</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.04943584759679372</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.04947164243753992</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.04947821561946827</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.049443134032774</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.04942814288867499</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.04942808422680807</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.04942808422680816</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.04942808422680816</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.05969038408835313</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.05031727584649567</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.04942808422680964</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.05969038408835313</v>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG336.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.961140970293489e-08</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.652167016002839e-05</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.939408306752842e-06</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.939672189700456e-06</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.352424412599744e-05</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.235953355698536e-06</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.06290725487377612</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.221712261250631e-14</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.741200630534903e-08</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.589331772103887e-05</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.004046921611756e-09</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6.239037855576112e-05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.06682957930778095</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.0002299258267452814</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.221712261250631e-14</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.221712261250631e-14</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.221712261250631e-14</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.8696911774618826</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.0002045388578260653</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.221712261250631e-14</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.8696911774618826</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG338.fasta</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.895467330877136e-08</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.476568141039371e-06</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.030040578176958e-06</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.151787187584208e-07</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.610530034189026e-05</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.51526457514426e-09</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0004890800038361683</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.220210398122174e-14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.11028594236142e-14</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6.168690430492309e-05</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.9941870487826978</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0001268402697972235</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.338726614490023e-05</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.395823073554883e-06</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.220210398122174e-14</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.220210398122174e-14</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.220210398122174e-14</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.003390244471934274</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.001668238920331247</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.220210398122174e-14</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.9941870487826978</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG344.fasta</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.346200188696094e-09</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.335469065818013e-06</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.860647141994194e-06</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.113536893599019e-13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7.879739989046989e-06</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.087748010720421e-09</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.02596241123818837</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.220172674699054e-14</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.406439168335739e-11</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.00029065471899428</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.9687903084082942</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.251647585304547e-06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.300256970327222e-05</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3.947472782755665e-07</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.220172674699054e-14</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.220172674699054e-14</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.220172674699054e-14</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0005452926945917669</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.004372605630532709</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.220172674699054e-14</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.9687903084082942</v>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG526.fasta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7.734483335466696e-08</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.861707716574436e-06</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.119311933664576e-06</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.855152241353887e-06</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.461301579428508e-05</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.973878797193723e-10</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.001573591022843654</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.220273155260283e-14</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.220273155260283e-14</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9.171447837342069e-05</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.9916805453443425</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0001787747541145125</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0001724360125120548</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.772814378800684e-08</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.220273155260283e-14</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.220273155260283e-14</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.220273155260283e-14</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.004458493166913974</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.001800890362715853</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.220273155260283e-14</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.9916805453443425</v>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG545.fasta</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.04600938914908e-08</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.787083543540845e-06</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.667165010237286e-06</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.485831799212646e-10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4.492760403725934e-05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.573783391160304e-10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.008320292139284905</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.220353603391988e-14</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.400014014089944e-13</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0001950722502872805</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.9846320568359698</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.786111991119186e-05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.422312707982798e-05</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.401925739074252e-07</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.220353603391988e-14</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.220353603391988e-14</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.220353603391988e-14</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.006380067639565748</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.0003708938763299911</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.220353603391988e-14</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.9846320568359698</v>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG593.fasta</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.155745706621975e-08</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.126231649410609e-05</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.000979449049378e-07</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8.674047643389855e-11</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.194218021529145e-05</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.133984971511182e-10</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.02014161030629942</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.220232504852707e-14</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.946303272305521e-10</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0003012397122384943</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.974950650558261</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5.996064164354387e-05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9.424617979574919e-05</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.625283362863982e-07</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.220232504852707e-14</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.220232504852707e-14</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.220232504852707e-14</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.004216030007548715</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.0002124830188852105</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.220232504852707e-14</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.974950650558261</v>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG648.fasta</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9.911712327759546e-08</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.18501664320087e-08</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.09372259021868e-05</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.271024677157116e-09</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0002765588293247827</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.702423234874628e-10</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.001711962388693072</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.220283208860405e-14</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.220283208860405e-14</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.000381550164263697</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.9918547326462861</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8.415082960048801e-05</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.11929912992319e-05</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3.978086393561072e-07</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.220283208860405e-14</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.220283208860405e-14</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.220283208860405e-14</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.003885835084759621</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.001752532322541613</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.220283208860405e-14</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.9918547326462861</v>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
           <t>RUG748.fasta</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B22" t="n">
         <v>1.680101872673611e-08</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C22" t="n">
         <v>1.564232954454367e-07</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D22" t="n">
         <v>1.561308493604057e-07</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E22" t="n">
         <v>3.063872651403228e-09</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F22" t="n">
         <v>0.0001362269742101319</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G22" t="n">
         <v>2.071769947557569e-08</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H22" t="n">
         <v>8.448537555181201e-05</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I22" t="n">
         <v>2.219947432584362e-14</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J22" t="n">
         <v>2.219947432584362e-14</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K22" t="n">
         <v>0.0001438560916202766</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L22" t="n">
         <v>0.951288940771906</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M22" t="n">
         <v>0.003715173719459485</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N22" t="n">
         <v>0.04450960453343062</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O22" t="n">
         <v>1.700077018093117e-08</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P22" t="n">
         <v>2.219947432584362e-14</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q22" t="n">
         <v>2.219947432584362e-14</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R22" t="n">
         <v>2.219947432584362e-14</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S22" t="n">
         <v>0.0001139158891133019</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T22" t="n">
         <v>7.426507069537299e-06</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U22" t="n">
         <v>2.219947432584362e-14</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V22" t="n">
         <v>0.951288940771906</v>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>p__Methanobacteriota</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>p__Methanobacteriota</t>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG779.fasta</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2.674424861700806e-12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.594307815925441e-05</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.178322850923892e-11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.220246144208538e-14</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.000912363038345991</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.001078239081196121</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.00658714214993004</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.220246144208538e-14</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8.926281043880069e-08</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0002672579554969137</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0001951864897731495</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0001913851881203803</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.628633441231255e-05</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.505123483464423e-06</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.220246144208538e-14</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.220246144208538e-14</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.220246144208538e-14</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.9906421649502096</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.437333471427292e-06</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.220246144208538e-14</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.9906421649502096</v>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG780.fasta</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5.767892975377219e-08</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.802224565503924e-07</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.30594272527501e-06</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.731581209240325e-06</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7.445786832360683e-05</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.917804963657528e-09</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0002290192928826134</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.220168797072992e-14</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.220168797072992e-14</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.742524404591186e-05</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.9945629661642282</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0001917759582902311</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0001579237330067341</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.39688496776047e-07</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.220168797072992e-14</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.220168797072992e-14</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.220168797072992e-14</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.00420968066332734</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.0005216300441397246</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.220168797072992e-14</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.9945629661642282</v>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG787.fasta</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3.121362882960645e-09</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.734658206790784e-06</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.295590944644782e-07</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.071149159435817e-11</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.502875813288415e-06</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.301660686526975e-10</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.03049406673858128</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.220100285243185e-14</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.056074321165911e-09</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0002027134523404886</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.9650601243293876</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.157200880904089e-05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0002769581576868635</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5.846426194354719e-07</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.220100285243185e-14</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.220100285243185e-14</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.220100285243185e-14</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.003818710476372702</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.0001037964726623077</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.220100285243185e-14</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.9650601243293876</v>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG791.fasta</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>9.951508808595023e-05</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.121610946411785e-08</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.694290849295116e-07</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.240880333471862e-14</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.09069761509152349</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8.857959386119682e-09</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0006217423577452415</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.240880333471862e-14</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.240880333471862e-14</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2926155060840758</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5.345373518489729e-14</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.613652414361141e-06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.442484079197736e-09</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.52599404437791e-10</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.240880333471862e-14</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.240880333471862e-14</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.240880333471862e-14</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.0062881511930943</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.6096754654346134</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.240880333471862e-14</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.6096754654346134</v>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>p__Thermoproteota</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>p__Thermoproteota(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>hRUG898.fasta</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.073224489478598e-11</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.71137940435849e-05</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.780270868940742e-11</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.220261043650995e-14</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.001778787553116023</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0008796529144098262</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.00821848948574082</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.220261043650995e-14</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.673109947123842e-08</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0002575703957125196</v>
+      </c>
+      <c r="L27" t="n">
+        <v>9.097880585886035e-05</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0001471055912237963</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0001005451345840893</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.589317812428999e-06</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.220261043650995e-14</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.220261043650995e-14</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.220261043650995e-14</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.9884495688549659</v>
+      </c>
+      <c r="T27" t="n">
+        <v>7.541382764507629e-06</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.220261043650995e-14</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.9884495688549659</v>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/d__Archaea.xlsx
+++ b/outputs-r202/d__Archaea.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,6 +550,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -625,6 +630,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -700,6 +710,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -775,6 +790,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -850,6 +870,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -925,6 +950,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1000,6 +1030,11 @@
           <t>p__Halobacteriota</t>
         </is>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>p__Halobacteriota(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1075,6 +1110,11 @@
           <t>p__Thermoproteota</t>
         </is>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>p__Thermoproteota(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1150,6 +1190,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1225,6 +1270,11 @@
           <t>p__Nanoarchaeota</t>
         </is>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>p__Nanoarchaeota(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1300,6 +1350,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1375,6 +1430,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1450,6 +1510,11 @@
           <t>p__Thermoplasmatota</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1525,6 +1590,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1600,6 +1670,11 @@
           <t>p__Thermoplasmatota</t>
         </is>
       </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1675,6 +1750,11 @@
           <t>p__Thermoplasmatota</t>
         </is>
       </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1750,6 +1830,11 @@
           <t>p__Thermoplasmatota</t>
         </is>
       </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1825,6 +1910,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1900,6 +1990,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1975,6 +2070,11 @@
           <t>p__Thermoplasmatota</t>
         </is>
       </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2050,6 +2150,11 @@
           <t>p__Nanoarchaeota</t>
         </is>
       </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>p__Nanoarchaeota(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2125,6 +2230,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2200,6 +2310,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2275,6 +2390,11 @@
           <t>p__Thermoplasmatota</t>
         </is>
       </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2350,6 +2470,11 @@
           <t>p__Thermoplasmatota</t>
         </is>
       </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2425,6 +2550,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2500,6 +2630,11 @@
           <t>p__Thermoplasmatota</t>
         </is>
       </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2575,6 +2710,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2650,6 +2790,11 @@
           <t>p__Thermoplasmatota</t>
         </is>
       </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2725,6 +2870,11 @@
           <t>p__Nanoarchaeota</t>
         </is>
       </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>p__Nanoarchaeota(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2800,6 +2950,11 @@
           <t>p__Thermoplasmatota</t>
         </is>
       </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2875,6 +3030,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2950,6 +3110,11 @@
           <t>p__Thermoplasmatota</t>
         </is>
       </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -3025,6 +3190,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -3100,6 +3270,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -3175,6 +3350,11 @@
           <t>p__Thermoproteota</t>
         </is>
       </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>p__Thermoproteota(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -3250,6 +3430,11 @@
           <t>p__Methanobacteriota</t>
         </is>
       </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>p__Methanobacteriota</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -3321,6 +3506,11 @@
         <v>0.9884495688549659</v>
       </c>
       <c r="W38" t="inlineStr">
+        <is>
+          <t>p__Thermoplasmatota</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
         <is>
           <t>p__Thermoplasmatota</t>
         </is>

--- a/outputs-r202/d__Archaea.xlsx
+++ b/outputs-r202/d__Archaea.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,67 +563,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.236292746778118e-09</v>
+        <v>1.21342032078677e-09</v>
       </c>
       <c r="C2" t="n">
-        <v>1.112624330466559e-06</v>
+        <v>1.952725115585991e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>1.467080857106666e-06</v>
+        <v>2.210165902569853e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>6.260853385420932e-11</v>
+        <v>3.719885018765499e-10</v>
       </c>
       <c r="F2" t="n">
-        <v>5.480555328065871e-06</v>
+        <v>2.260590815176586e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>3.148267622463801e-09</v>
+        <v>1.393074922013093e-09</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02095890513143777</v>
+        <v>0.02643348559371996</v>
       </c>
       <c r="I2" t="n">
-        <v>2.22006427633334e-14</v>
+        <v>2.220006597154906e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>1.330737049996885e-12</v>
+        <v>5.839120698079666e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>3.079325778726137e-05</v>
+        <v>1.193316925267742e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9777358224263406</v>
+        <v>0.9725729928868211</v>
       </c>
       <c r="M2" t="n">
-        <v>9.685912566133609e-06</v>
+        <v>2.473043509386777e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.000149070888817989</v>
+        <v>0.0001074187149289006</v>
       </c>
       <c r="O2" t="n">
-        <v>9.783513996325708e-08</v>
+        <v>8.474466179276828e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>2.22006427633334e-14</v>
+        <v>2.220006597154906e-14</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.22006427633334e-14</v>
+        <v>2.220006597154906e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>2.22006427633334e-14</v>
+        <v>2.220006597154906e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0003963452547568386</v>
+        <v>0.0006120462114381354</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0007112145840271359</v>
+        <v>0.0002105364657349303</v>
       </c>
       <c r="U2" t="n">
-        <v>2.22006427633334e-14</v>
+        <v>2.220006597154906e-14</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9777358224263406</v>
+        <v>0.9725729928868211</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -643,67 +643,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.518483770848034e-09</v>
+        <v>1.886452079956824e-09</v>
       </c>
       <c r="C3" t="n">
-        <v>5.727316622247762e-08</v>
+        <v>1.515748488865893e-08</v>
       </c>
       <c r="D3" t="n">
-        <v>3.061929142960214e-05</v>
+        <v>5.210408580657701e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>2.509037446614246e-11</v>
+        <v>1.679631633826979e-10</v>
       </c>
       <c r="F3" t="n">
-        <v>3.249613079384257e-05</v>
+        <v>3.566241919728058e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>2.482520281362402e-08</v>
+        <v>1.093782785184596e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0003172873437370526</v>
+        <v>0.0003814823425019437</v>
       </c>
       <c r="I3" t="n">
-        <v>2.22023096814478e-14</v>
+        <v>2.220053005095413e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>2.22023096814478e-14</v>
+        <v>2.220053005095413e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>2.929793312917126e-05</v>
+        <v>5.802844590554834e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9931868472563644</v>
+        <v>0.9761128167508217</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002316014360617545</v>
+        <v>0.0008925273902410486</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0001250851569094887</v>
+        <v>4.694215255232291e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>1.836554622712723e-08</v>
+        <v>1.382432558174811e-08</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22023096814478e-14</v>
+        <v>2.220053005095413e-14</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22023096814478e-14</v>
+        <v>2.220053005095413e-14</v>
       </c>
       <c r="R3" t="n">
-        <v>2.22023096814478e-14</v>
+        <v>2.220053005095413e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>0.003954337634961286</v>
+        <v>0.02246526095227299</v>
       </c>
       <c r="T3" t="n">
-        <v>7.912884435096887e-06</v>
+        <v>7.359087828962434e-06</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22023096814478e-14</v>
+        <v>2.220053005095413e-14</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9931868472563644</v>
+        <v>0.9761128167508217</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -723,67 +723,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.10025541105707e-08</v>
+        <v>1.44195535923253e-08</v>
       </c>
       <c r="C4" t="n">
-        <v>3.32388568974924e-07</v>
+        <v>6.747046874984751e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>9.349039187943904e-06</v>
+        <v>4.852040401011634e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>2.713621029490999e-07</v>
+        <v>4.076189375809011e-08</v>
       </c>
       <c r="F4" t="n">
-        <v>3.277726185951188e-05</v>
+        <v>2.47692507886836e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>8.378644426320504e-10</v>
+        <v>3.716209556694855e-10</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001218041833967136</v>
+        <v>0.001823580004360196</v>
       </c>
       <c r="I4" t="n">
-        <v>2.220222967046373e-14</v>
+        <v>2.22026818136692e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>2.220222967046373e-14</v>
+        <v>2.22026818136692e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001219566334057658</v>
+        <v>0.0002095712889160965</v>
       </c>
       <c r="L4" t="n">
-        <v>0.993854271350281</v>
+        <v>0.9922169365078908</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0001186633816315599</v>
+        <v>6.14946219890566e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0002153991925888881</v>
+        <v>5.530164326583524e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>4.960074886753169e-08</v>
+        <v>7.864667163252574e-08</v>
       </c>
       <c r="P4" t="n">
-        <v>2.220222967046373e-14</v>
+        <v>2.22026818136692e-14</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.220222967046373e-14</v>
+        <v>2.22026818136692e-14</v>
       </c>
       <c r="R4" t="n">
-        <v>2.220222967046373e-14</v>
+        <v>2.22026818136692e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00359224959556601</v>
+        <v>0.004141483004786675</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0008365965195395969</v>
+        <v>0.001461202733040964</v>
       </c>
       <c r="U4" t="n">
-        <v>2.220222967046373e-14</v>
+        <v>2.22026818136692e-14</v>
       </c>
       <c r="V4" t="n">
-        <v>0.993854271350281</v>
+        <v>0.9922169365078908</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -803,67 +803,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.688724009666136e-07</v>
+        <v>5.979048525524056e-07</v>
       </c>
       <c r="C5" t="n">
-        <v>1.500761867648566e-07</v>
+        <v>3.852761956536855e-08</v>
       </c>
       <c r="D5" t="n">
-        <v>1.453289579764098e-07</v>
+        <v>1.274084518517645e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>4.38926667436278e-06</v>
+        <v>3.917334892951168e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0007830379743269265</v>
+        <v>0.0007458343154911417</v>
       </c>
       <c r="G5" t="n">
-        <v>6.223235562998712e-08</v>
+        <v>5.665484496446408e-08</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001596645028034083</v>
+        <v>0.0001526034320234657</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220233009677828e-14</v>
+        <v>2.220198859772032e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>3.42142849816207e-14</v>
+        <v>2.220198859772032e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>1.13864648670438e-05</v>
+        <v>1.340383527675639e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.986868919144929</v>
+        <v>0.9886651196942752</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001892612432343641</v>
+        <v>0.0009514541593549162</v>
       </c>
       <c r="N5" t="n">
-        <v>4.768187999794472e-06</v>
+        <v>7.249285494911648e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>1.232487322978453e-06</v>
+        <v>1.317137434489624e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>2.220233009677828e-14</v>
+        <v>2.220198859772032e-14</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.220233009677828e-14</v>
+        <v>2.220198859772032e-14</v>
       </c>
       <c r="R5" t="n">
-        <v>2.220233009677828e-14</v>
+        <v>2.220198859772032e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01024344537190021</v>
+        <v>0.009437068687305924</v>
       </c>
       <c r="T5" t="n">
-        <v>2.951765678587549e-05</v>
+        <v>2.121162254813498e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>2.220233009677828e-14</v>
+        <v>2.220198859772032e-14</v>
       </c>
       <c r="V5" t="n">
-        <v>0.986868919144929</v>
+        <v>0.9886651196942752</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -883,67 +883,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.600835762362938e-08</v>
+        <v>1.392254642567893e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>2.998879686576527e-07</v>
+        <v>1.041651501854498e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>7.407629050152755e-06</v>
+        <v>3.696999039155936e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>2.891996988096954e-08</v>
+        <v>2.616777268479433e-08</v>
       </c>
       <c r="F6" t="n">
-        <v>1.626443418532725e-05</v>
+        <v>1.707028113805412e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>2.694900842436162e-10</v>
+        <v>3.812153260200896e-10</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002011739020944481</v>
+        <v>0.002005255985307541</v>
       </c>
       <c r="I6" t="n">
-        <v>2.220248295797421e-14</v>
+        <v>2.220276834513237e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>2.220248295797421e-14</v>
+        <v>2.220276834513237e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001742896995798187</v>
+        <v>0.0002118030856720141</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9899810949685023</v>
+        <v>0.9922741061897636</v>
       </c>
       <c r="M6" t="n">
-        <v>5.6890729298682e-05</v>
+        <v>4.792281148911685e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>3.489748572722597e-05</v>
+        <v>6.283400257783779e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.644580175443423e-07</v>
+        <v>9.543034803607285e-08</v>
       </c>
       <c r="P6" t="n">
-        <v>2.220248295797421e-14</v>
+        <v>2.220276834513237e-14</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.220248295797421e-14</v>
+        <v>2.220276834513237e-14</v>
       </c>
       <c r="R6" t="n">
-        <v>2.220248295797421e-14</v>
+        <v>2.220276834513237e-14</v>
       </c>
       <c r="S6" t="n">
-        <v>0.007169139900728184</v>
+        <v>0.003602271504089859</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00054774658804693</v>
+        <v>0.001773861587405237</v>
       </c>
       <c r="U6" t="n">
-        <v>2.220248295797421e-14</v>
+        <v>2.220276834513237e-14</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9899810949685023</v>
+        <v>0.9922741061897636</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -959,231 +959,231 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG141.fasta</t>
+          <t>RUG186.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002471518747365429</v>
+        <v>2.531146595616333e-08</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002634384039623205</v>
+        <v>6.73952140754162e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>2.75605753500535e-05</v>
+        <v>1.233177238394298e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>7.699955424193285e-06</v>
+        <v>2.156341510796709e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0004288864322576161</v>
+        <v>2.527163147517446e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>9.195292050919746e-05</v>
+        <v>1.114042201953695e-09</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5031500363205333</v>
+        <v>0.0003703187755487108</v>
       </c>
       <c r="I7" t="n">
-        <v>8.476894545533738e-14</v>
+        <v>2.220244470640027e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>1.58451014138684e-07</v>
+        <v>1.130930787112776e-13</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02337954679001063</v>
+        <v>3.111776763931434e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>4.643051981057464e-06</v>
+        <v>0.9920821481833288</v>
       </c>
       <c r="M7" t="n">
-        <v>4.918214703273101e-05</v>
+        <v>8.534980576249239e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01181678819335152</v>
+        <v>6.117313225502e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.000219224240689892</v>
+        <v>1.53689799613529e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>2.438296907881861e-10</v>
+        <v>2.220244470640027e-14</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.476894545533738e-14</v>
+        <v>2.220244470640027e-14</v>
       </c>
       <c r="R7" t="n">
-        <v>8.476894545533738e-14</v>
+        <v>2.220244470640027e-14</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4537887979360713</v>
+        <v>0.004998066635939903</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004300565590277689</v>
+        <v>0.002336802411525082</v>
       </c>
       <c r="U7" t="n">
-        <v>8.476894545533735e-14</v>
+        <v>2.220244470640027e-14</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5031500363205333</v>
+        <v>0.9920821481833288</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>p__Halobacteriota</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>p__Halobacteriota(reject)</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG150.fasta</t>
+          <t>RUG201.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.272899681668104e-09</v>
+        <v>1.162683549406822e-09</v>
       </c>
       <c r="C8" t="n">
-        <v>4.755978814194042e-05</v>
+        <v>1.704839894547981e-08</v>
       </c>
       <c r="D8" t="n">
-        <v>7.597542172208345e-06</v>
+        <v>6.672101778242435e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>4.485195851729473e-13</v>
+        <v>1.945926258468078e-11</v>
       </c>
       <c r="F8" t="n">
-        <v>3.833238593671244e-05</v>
+        <v>4.744402635381692e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.007224598563272352</v>
+        <v>1.42371165590427e-08</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02716136590657489</v>
+        <v>0.0004369220134935031</v>
       </c>
       <c r="I8" t="n">
-        <v>4.485195851728756e-13</v>
+        <v>2.22014878814933e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>7.903050876754231e-06</v>
+        <v>2.22014878814933e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001203872540996929</v>
+        <v>1.132819152032438e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>5.485651605409162e-05</v>
+        <v>0.9844413235791397</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003717245292467374</v>
+        <v>0.001030082702059661</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2618858781488133</v>
+        <v>3.991985162412047e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2257282073516602</v>
+        <v>2.256067696932492e-08</v>
       </c>
       <c r="P8" t="n">
-        <v>4.485195851728756e-13</v>
+        <v>2.22014878814933e-14</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.485195851728756e-13</v>
+        <v>2.22014878814933e-14</v>
       </c>
       <c r="R8" t="n">
-        <v>4.485195851728756e-13</v>
+        <v>2.22014878814933e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05786643766732649</v>
+        <v>0.01391949587661814</v>
       </c>
       <c r="T8" t="n">
-        <v>0.415056135970116</v>
+        <v>6.707712939724033e-06</v>
       </c>
       <c r="U8" t="n">
-        <v>4.485195851728752e-13</v>
+        <v>2.22014878814933e-14</v>
       </c>
       <c r="V8" t="n">
-        <v>0.415056135970116</v>
+        <v>0.9844413235791397</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>p__Thermoproteota</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>p__Thermoproteota(reject)</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG186.fasta</t>
+          <t>RUG236.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.583933535214388e-08</v>
+        <v>1.980104785390217e-09</v>
       </c>
       <c r="C9" t="n">
-        <v>5.978948535682442e-06</v>
+        <v>1.37067634891056e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>1.288320570805739e-06</v>
+        <v>2.865556259201263e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>5.357498438875456e-08</v>
+        <v>1.233472442391233e-10</v>
       </c>
       <c r="F9" t="n">
-        <v>2.023800132820722e-05</v>
+        <v>4.763119121506768e-06</v>
       </c>
       <c r="G9" t="n">
-        <v>9.487769326498587e-10</v>
+        <v>3.789444388748093e-10</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0003028472526460606</v>
+        <v>0.03000707489379195</v>
       </c>
       <c r="I9" t="n">
-        <v>2.220248283771513e-14</v>
+        <v>2.220119032970621e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>7.437476037173479e-13</v>
+        <v>7.128175615674555e-10</v>
       </c>
       <c r="K9" t="n">
-        <v>4.708926473526075e-05</v>
+        <v>0.0001144742189614704</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9892876399793384</v>
+        <v>0.9654221931961426</v>
       </c>
       <c r="M9" t="n">
-        <v>8.229167254771607e-05</v>
+        <v>4.251199137960088e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>1.792788262387468e-05</v>
+        <v>9.942367402596913e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>3.94460325048334e-06</v>
+        <v>1.833461675787595e-07</v>
       </c>
       <c r="P9" t="n">
-        <v>2.220248283771513e-14</v>
+        <v>2.220119032970621e-14</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.220248283771513e-14</v>
+        <v>2.220119032970621e-14</v>
       </c>
       <c r="R9" t="n">
-        <v>2.220248283771513e-14</v>
+        <v>2.220119032970621e-14</v>
       </c>
       <c r="S9" t="n">
-        <v>0.007840981041218666</v>
+        <v>0.004165824077087006</v>
       </c>
       <c r="T9" t="n">
-        <v>0.002389672669253314</v>
+        <v>0.0001295549688820733</v>
       </c>
       <c r="U9" t="n">
-        <v>2.220248283771513e-14</v>
+        <v>2.220119032970621e-14</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9892876399793384</v>
+        <v>0.9654221931961426</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1199,391 +1199,391 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG191.fasta</t>
+          <t>RUG256.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.324657831771403e-05</v>
+        <v>9.565769834945473e-09</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008330590923691741</v>
+        <v>1.296561064267315e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>6.363262569393176e-06</v>
+        <v>3.150492584681548e-06</v>
       </c>
       <c r="E10" t="n">
-        <v>7.353984143226639e-06</v>
+        <v>1.680744016342939e-08</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001846890277730626</v>
+        <v>1.185840350791842e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0004491078251492744</v>
+        <v>2.818080330269548e-10</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07116696560189543</v>
+        <v>0.002234605828175785</v>
       </c>
       <c r="I10" t="n">
-        <v>3.23417479174011e-13</v>
+        <v>2.220272790917158e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>6.4775204116614e-06</v>
+        <v>2.220272790917158e-14</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0008641400809316622</v>
+        <v>0.0001989985815365523</v>
       </c>
       <c r="L10" t="n">
-        <v>4.960767284374185e-06</v>
+        <v>0.9911758285927622</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02186797633464936</v>
+        <v>5.078226416626189e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>0.684334638188912</v>
+        <v>5.778497840298843e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03627476326074897</v>
+        <v>8.907658467063647e-08</v>
       </c>
       <c r="P10" t="n">
-        <v>3.234174791740106e-13</v>
+        <v>2.220272790917158e-14</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.234174791740106e-13</v>
+        <v>2.220272790917158e-14</v>
       </c>
       <c r="R10" t="n">
-        <v>3.234174791740105e-13</v>
+        <v>2.220272790917158e-14</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03054746434744788</v>
+        <v>0.005198075005809502</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1517765928758223</v>
+        <v>0.001067503560253842</v>
       </c>
       <c r="U10" t="n">
-        <v>3.234174791740151e-13</v>
+        <v>2.220272790917158e-14</v>
       </c>
       <c r="V10" t="n">
-        <v>0.684334638188912</v>
+        <v>0.9911758285927622</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>p__Nanoarchaeota</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>p__Nanoarchaeota(reject)</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUG201.fasta</t>
+          <t>RUG293.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.413657953008742e-09</v>
+        <v>0.04962196010968808</v>
       </c>
       <c r="C11" t="n">
-        <v>2.029594270998538e-09</v>
+        <v>0.04959488052269398</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0002468864623962907</v>
+        <v>0.04959574710604213</v>
       </c>
       <c r="E11" t="n">
-        <v>6.766278348369098e-11</v>
+        <v>0.04959474928902429</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0001438266956707074</v>
+        <v>0.04959478545781545</v>
       </c>
       <c r="G11" t="n">
-        <v>1.882187439718187e-08</v>
+        <v>0.04970614945084185</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0004929316597092891</v>
+        <v>0.04961159301070195</v>
       </c>
       <c r="I11" t="n">
-        <v>2.220209071331555e-14</v>
+        <v>0.04959474912509281</v>
       </c>
       <c r="J11" t="n">
-        <v>2.220209071331555e-14</v>
+        <v>0.04959475880534889</v>
       </c>
       <c r="K11" t="n">
-        <v>1.008118020554945e-05</v>
+        <v>0.04960127705949528</v>
       </c>
       <c r="L11" t="n">
-        <v>0.987040347180255</v>
+        <v>0.04965353801218406</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001457122960698049</v>
+        <v>0.04965236619653023</v>
       </c>
       <c r="N11" t="n">
-        <v>2.252102255245493e-05</v>
+        <v>0.04961035034592465</v>
       </c>
       <c r="O11" t="n">
-        <v>3.381436550981436e-08</v>
+        <v>0.04959479137287548</v>
       </c>
       <c r="P11" t="n">
-        <v>2.220209071331555e-14</v>
+        <v>0.04959474912509281</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.220209071331555e-14</v>
+        <v>0.04959474912509281</v>
       </c>
       <c r="R11" t="n">
-        <v>2.220209071331555e-14</v>
+        <v>0.04959474912509279</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01057949927180044</v>
+        <v>0.05650689645920753</v>
       </c>
       <c r="T11" t="n">
-        <v>6.721419424129327e-06</v>
+        <v>0.05049241117616202</v>
       </c>
       <c r="U11" t="n">
-        <v>2.220209071331555e-14</v>
+        <v>0.04959474912509293</v>
       </c>
       <c r="V11" t="n">
-        <v>0.987040347180255</v>
+        <v>0.05650689645920753</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>p__Methanobacteriota</t>
+          <t>p__Thermoplasmatota</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>p__Methanobacteriota</t>
+          <t>p__Thermoplasmatota(reject)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RUG236.fasta</t>
+          <t>RUG336.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.456863465299021e-08</v>
+        <v>2.745620256534234e-08</v>
       </c>
       <c r="C12" t="n">
-        <v>4.935709144761657e-06</v>
+        <v>1.453186399408423e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>9.856206538984538e-07</v>
+        <v>3.278179373059462e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>5.042250183142907e-10</v>
+        <v>2.665894858210845e-06</v>
       </c>
       <c r="F12" t="n">
-        <v>4.930439966161532e-06</v>
+        <v>3.447185637286235e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>2.168555770457615e-10</v>
+        <v>5.894194638117474e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01001151209624601</v>
+        <v>0.133634770500875</v>
       </c>
       <c r="I12" t="n">
-        <v>2.220440105391922e-14</v>
+        <v>2.221208352151297e-14</v>
       </c>
       <c r="J12" t="n">
-        <v>1.560426174786245e-10</v>
+        <v>7.861441211501917e-10</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001519003959757566</v>
+        <v>6.5099275170645e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9719253531492416</v>
+        <v>3.9395950500712e-10</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0001181029802674335</v>
+        <v>9.806080014912534e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>5.098417708800864e-05</v>
+        <v>0.02391847140994052</v>
       </c>
       <c r="O12" t="n">
-        <v>7.861405744476498e-07</v>
+        <v>0.0001569737396746715</v>
       </c>
       <c r="P12" t="n">
-        <v>2.220440105391922e-14</v>
+        <v>2.221208352151297e-14</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.220440105391922e-14</v>
+        <v>2.221208352151297e-14</v>
       </c>
       <c r="R12" t="n">
-        <v>2.220440105391922e-14</v>
+        <v>2.221208352151297e-14</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01763592772785767</v>
+        <v>0.8418351459259379</v>
       </c>
       <c r="T12" t="n">
-        <v>9.456611711559969e-05</v>
+        <v>0.0002306077225986268</v>
       </c>
       <c r="U12" t="n">
-        <v>2.220440105391922e-14</v>
+        <v>2.221208352151297e-14</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9719253531492416</v>
+        <v>0.8418351459259379</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>p__Methanobacteriota</t>
+          <t>p__Thermoplasmatota</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>p__Methanobacteriota</t>
+          <t>p__Thermoplasmatota</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG255.fasta</t>
+          <t>RUG338.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.812194431200946e-10</v>
+        <v>2.31700270442919e-08</v>
       </c>
       <c r="C13" t="n">
-        <v>2.304535865260036e-05</v>
+        <v>7.08545797970274e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>2.033737930415229e-08</v>
+        <v>1.536831192871315e-06</v>
       </c>
       <c r="E13" t="n">
-        <v>2.219971102110271e-14</v>
+        <v>2.747686695504773e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002860389038171942</v>
+        <v>3.402313792871549e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>1.76189539031012e-05</v>
+        <v>8.163111657742317e-10</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04988545340228859</v>
+        <v>0.0004230907071975141</v>
       </c>
       <c r="I13" t="n">
-        <v>2.219971102110271e-14</v>
+        <v>2.220225771596673e-14</v>
       </c>
       <c r="J13" t="n">
-        <v>4.158197029548876e-09</v>
+        <v>1.760787342731387e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0004323270761672052</v>
+        <v>2.846447192645369e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001495974259448551</v>
+        <v>0.9916391196596893</v>
       </c>
       <c r="M13" t="n">
-        <v>1.255652068011101e-07</v>
+        <v>0.0001221526339740333</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0008355572803898567</v>
+        <v>4.672562791097003e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>1.97144828989084e-07</v>
+        <v>1.42556681894969e-06</v>
       </c>
       <c r="P13" t="n">
-        <v>2.219971102110271e-14</v>
+        <v>2.220225771596673e-14</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.219971102110271e-14</v>
+        <v>2.220225771596673e-14</v>
       </c>
       <c r="R13" t="n">
-        <v>2.219971102110271e-14</v>
+        <v>2.220225771596673e-14</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9457954705044427</v>
+        <v>0.006089988207742009</v>
       </c>
       <c r="T13" t="n">
-        <v>1.932730743533479e-07</v>
+        <v>0.001606088942344485</v>
       </c>
       <c r="U13" t="n">
-        <v>2.219971102110271e-14</v>
+        <v>2.220225771596673e-14</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9457954705044427</v>
+        <v>0.9916391196596893</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>p__Thermoplasmatota</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>p__Thermoplasmatota</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RUG256.fasta</t>
+          <t>RUG344.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.068206761093547e-08</v>
+        <v>1.160162002925369e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>7.307634189519322e-07</v>
+        <v>2.451103652332813e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>4.422437408216643e-06</v>
+        <v>1.839609342508066e-06</v>
       </c>
       <c r="E14" t="n">
-        <v>2.424631065621873e-08</v>
+        <v>3.755359726873589e-11</v>
       </c>
       <c r="F14" t="n">
-        <v>8.341371015592999e-06</v>
+        <v>1.40240818997561e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>4.517723896796014e-10</v>
+        <v>6.149755488579082e-10</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001053894865371465</v>
+        <v>0.01682029263567436</v>
       </c>
       <c r="I14" t="n">
-        <v>2.220286646292433e-14</v>
+        <v>2.220135152738953e-14</v>
       </c>
       <c r="J14" t="n">
-        <v>2.220286646292433e-14</v>
+        <v>2.347308962114339e-12</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0003264030010369547</v>
+        <v>0.0001832771839093375</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9907887053598717</v>
+        <v>0.9810363480624504</v>
       </c>
       <c r="M14" t="n">
-        <v>2.825591930674142e-05</v>
+        <v>1.67373087834257e-05</v>
       </c>
       <c r="N14" t="n">
-        <v>9.122020671852499e-05</v>
+        <v>3.183117049163123e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>8.92950590266557e-08</v>
+        <v>1.49990382061384e-07</v>
       </c>
       <c r="P14" t="n">
-        <v>2.220286646292433e-14</v>
+        <v>2.220135152738953e-14</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.220286646292433e-14</v>
+        <v>2.220135152738953e-14</v>
       </c>
       <c r="R14" t="n">
-        <v>2.220286646292433e-14</v>
+        <v>2.220135152738953e-14</v>
       </c>
       <c r="S14" t="n">
-        <v>0.005077619865444434</v>
+        <v>0.0009962984929365989</v>
       </c>
       <c r="T14" t="n">
-        <v>0.002620271535064383</v>
+        <v>0.0008967485453280779</v>
       </c>
       <c r="U14" t="n">
-        <v>2.220286646292433e-14</v>
+        <v>2.220135152738953e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0.9907887053598717</v>
+        <v>0.9810363480624504</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1599,311 +1599,311 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUG258.fasta</t>
+          <t>RUG492.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.647080588275607e-10</v>
+        <v>6.017597696851629e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>2.779254056021093e-05</v>
+        <v>2.667310143768424e-06</v>
       </c>
       <c r="D15" t="n">
-        <v>2.529628612905928e-08</v>
+        <v>2.006686372362866e-06</v>
       </c>
       <c r="E15" t="n">
-        <v>2.22008646273149e-14</v>
+        <v>8.333999638498307e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>0.002839996892309139</v>
+        <v>3.537535918218058e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>1.607155452257154e-05</v>
+        <v>1.492424598313349e-09</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03686975716199381</v>
+        <v>0.0002474737111996368</v>
       </c>
       <c r="I15" t="n">
-        <v>2.22008646273149e-14</v>
+        <v>2.220198689696556e-14</v>
       </c>
       <c r="J15" t="n">
-        <v>6.066208201848342e-09</v>
+        <v>2.220198689696556e-14</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0005186282273974351</v>
+        <v>1.920341271846349e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000214042634266275</v>
+        <v>0.9910621649428266</v>
       </c>
       <c r="M15" t="n">
-        <v>1.333341220100695e-07</v>
+        <v>0.0003298789920837549</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001459203582451415</v>
+        <v>0.0001472491254450923</v>
       </c>
       <c r="O15" t="n">
-        <v>4.477417475628147e-07</v>
+        <v>1.686801881450458e-07</v>
       </c>
       <c r="P15" t="n">
-        <v>2.22008646273149e-14</v>
+        <v>2.220198689696556e-14</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.22008646273149e-14</v>
+        <v>2.220198689696556e-14</v>
       </c>
       <c r="R15" t="n">
-        <v>2.22008646273149e-14</v>
+        <v>2.220198689696556e-14</v>
       </c>
       <c r="S15" t="n">
-        <v>0.95805365542694</v>
+        <v>0.007268983477519485</v>
       </c>
       <c r="T15" t="n">
-        <v>2.385763540024281e-07</v>
+        <v>0.0008764326341471622</v>
       </c>
       <c r="U15" t="n">
-        <v>2.22008646273149e-14</v>
+        <v>2.220198689696556e-14</v>
       </c>
       <c r="V15" t="n">
-        <v>0.95805365542694</v>
+        <v>0.9910621649428266</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>p__Thermoplasmatota</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>p__Thermoplasmatota</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUG293.fasta</t>
+          <t>RUG526.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04946511509024182</v>
+        <v>1.876353538847751e-08</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0494282211817742</v>
+        <v>1.815438712300279e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04942964232870142</v>
+        <v>3.081519862062634e-06</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04942808441641259</v>
+        <v>2.401416711641735e-07</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04942812427068386</v>
+        <v>1.958412234860911e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04953481904615828</v>
+        <v>3.70346014665363e-10</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04945283328876119</v>
+        <v>0.001715410364032929</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04942808422680817</v>
+        <v>2.220255036058861e-14</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04942809673312461</v>
+        <v>2.220255036058861e-14</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04943584759679372</v>
+        <v>9.863732818639865e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04947164243753992</v>
+        <v>0.9910306082252311</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04947821561946827</v>
+        <v>0.0001138430237760272</v>
       </c>
       <c r="N16" t="n">
-        <v>0.049443134032774</v>
+        <v>9.090085766931122e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>0.04942814288867499</v>
+        <v>5.455004094917361e-08</v>
       </c>
       <c r="P16" t="n">
-        <v>0.04942808422680807</v>
+        <v>2.220255036058861e-14</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.04942808422680816</v>
+        <v>2.220255036058861e-14</v>
       </c>
       <c r="R16" t="n">
-        <v>0.04942808422680816</v>
+        <v>2.220255036058861e-14</v>
       </c>
       <c r="S16" t="n">
-        <v>0.05969038408835313</v>
+        <v>0.00596634637405073</v>
       </c>
       <c r="T16" t="n">
-        <v>0.05031727584649567</v>
+        <v>0.0009594589204037613</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04942808422680964</v>
+        <v>2.220255036058861e-14</v>
       </c>
       <c r="V16" t="n">
-        <v>0.05969038408835313</v>
+        <v>0.9910306082252311</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>p__Thermoplasmatota</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>p__Thermoplasmatota(reject)</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUG336.fasta</t>
+          <t>RUG545.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.961140970293489e-08</v>
+        <v>5.223910052469703e-09</v>
       </c>
       <c r="C17" t="n">
-        <v>1.652167016002839e-05</v>
+        <v>1.672343288105644e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>3.939408306752842e-06</v>
+        <v>3.174086207199923e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>2.939672189700456e-06</v>
+        <v>3.567253273350826e-09</v>
       </c>
       <c r="F17" t="n">
-        <v>1.352424412599744e-05</v>
+        <v>3.751076719072493e-05</v>
       </c>
       <c r="G17" t="n">
-        <v>2.235953355698536e-06</v>
+        <v>4.538691707302668e-10</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06290725487377612</v>
+        <v>0.00515407006345195</v>
       </c>
       <c r="I17" t="n">
-        <v>2.221712261250631e-14</v>
+        <v>2.220291498020634e-14</v>
       </c>
       <c r="J17" t="n">
-        <v>1.741200630534903e-08</v>
+        <v>2.220291498020634e-14</v>
       </c>
       <c r="K17" t="n">
-        <v>3.589331772103887e-05</v>
+        <v>0.0001733103979339241</v>
       </c>
       <c r="L17" t="n">
-        <v>2.004046921611756e-09</v>
+        <v>0.990638688663833</v>
       </c>
       <c r="M17" t="n">
-        <v>6.239037855576112e-05</v>
+        <v>3.518782711058038e-05</v>
       </c>
       <c r="N17" t="n">
-        <v>0.06682957930778095</v>
+        <v>3.621526716006025e-05</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0002299258267452814</v>
+        <v>6.989276652523931e-08</v>
       </c>
       <c r="P17" t="n">
-        <v>2.221712261250631e-14</v>
+        <v>2.220291498020634e-14</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.221712261250631e-14</v>
+        <v>2.220291498020634e-14</v>
       </c>
       <c r="R17" t="n">
-        <v>2.221712261250631e-14</v>
+        <v>2.220291498020634e-14</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8696911774618826</v>
+        <v>0.00231880232535194</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0002045388578260653</v>
+        <v>0.001601289120540217</v>
       </c>
       <c r="U17" t="n">
-        <v>2.221712261250631e-14</v>
+        <v>2.220291498020634e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0.8696911774618826</v>
+        <v>0.990638688663833</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>p__Thermoplasmatota</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>p__Thermoplasmatota</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RUG338.fasta</t>
+          <t>RUG593.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.895467330877136e-08</v>
+        <v>2.515166889201911e-09</v>
       </c>
       <c r="C18" t="n">
-        <v>2.476568141039371e-06</v>
+        <v>1.507315876940041e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>2.030040578176958e-06</v>
+        <v>2.85332526014084e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>4.151787187584208e-07</v>
+        <v>5.140720698617522e-11</v>
       </c>
       <c r="F18" t="n">
-        <v>5.610530034189026e-05</v>
+        <v>5.757454269790509e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>1.51526457514426e-09</v>
+        <v>5.420574087322833e-10</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0004890800038361683</v>
+        <v>0.03327790520936259</v>
       </c>
       <c r="I18" t="n">
-        <v>2.220210398122174e-14</v>
+        <v>2.220039186161057e-14</v>
       </c>
       <c r="J18" t="n">
-        <v>5.11028594236142e-14</v>
+        <v>1.265943510761054e-09</v>
       </c>
       <c r="K18" t="n">
-        <v>6.168690430492309e-05</v>
+        <v>0.0001256644406144517</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9941870487826978</v>
+        <v>0.9628519045092322</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0001268402697972235</v>
+        <v>3.576968657794175e-05</v>
       </c>
       <c r="N18" t="n">
-        <v>1.338726614490023e-05</v>
+        <v>0.0001866679027179939</v>
       </c>
       <c r="O18" t="n">
-        <v>2.395823073554883e-06</v>
+        <v>1.759452378139896e-07</v>
       </c>
       <c r="P18" t="n">
-        <v>2.220210398122174e-14</v>
+        <v>2.220039186161057e-14</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.220210398122174e-14</v>
+        <v>2.220039186161057e-14</v>
       </c>
       <c r="R18" t="n">
-        <v>2.220210398122174e-14</v>
+        <v>2.220039186161057e-14</v>
       </c>
       <c r="S18" t="n">
-        <v>0.003390244471934274</v>
+        <v>0.003376847098765354</v>
       </c>
       <c r="T18" t="n">
-        <v>0.001668238920331247</v>
+        <v>0.0001239448872404239</v>
       </c>
       <c r="U18" t="n">
-        <v>2.220210398122174e-14</v>
+        <v>2.220039186161057e-14</v>
       </c>
       <c r="V18" t="n">
-        <v>0.9941870487826978</v>
+        <v>0.9628519045092322</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1919,71 +1919,71 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RUG344.fasta</t>
+          <t>RUG648.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.346200188696094e-09</v>
+        <v>1.771191460445375e-08</v>
       </c>
       <c r="C19" t="n">
-        <v>2.335469065818013e-06</v>
+        <v>6.504307066383764e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>1.860647141994194e-06</v>
+        <v>7.756702025992153e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>5.113536893599019e-13</v>
+        <v>6.270591020800103e-08</v>
       </c>
       <c r="F19" t="n">
-        <v>7.879739989046989e-06</v>
+        <v>4.883269186538721e-05</v>
       </c>
       <c r="G19" t="n">
-        <v>1.087748010720421e-09</v>
+        <v>4.030820204068657e-10</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02596241123818837</v>
+        <v>0.002280077828696016</v>
       </c>
       <c r="I19" t="n">
-        <v>2.220172674699054e-14</v>
+        <v>2.220263540134948e-14</v>
       </c>
       <c r="J19" t="n">
-        <v>5.406439168335739e-11</v>
+        <v>2.220263540134948e-14</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00029065471899428</v>
+        <v>0.0001603582318882669</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9687903084082942</v>
+        <v>0.9927386218270029</v>
       </c>
       <c r="M19" t="n">
-        <v>3.251647585304547e-06</v>
+        <v>8.055639313670821e-05</v>
       </c>
       <c r="N19" t="n">
-        <v>2.300256970327222e-05</v>
+        <v>5.31831945339429e-05</v>
       </c>
       <c r="O19" t="n">
-        <v>3.947472782755665e-07</v>
+        <v>8.192467276939294e-08</v>
       </c>
       <c r="P19" t="n">
-        <v>2.220172674699054e-14</v>
+        <v>2.220263540134948e-14</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.220172674699054e-14</v>
+        <v>2.220263540134948e-14</v>
       </c>
       <c r="R19" t="n">
-        <v>2.220172674699054e-14</v>
+        <v>2.220263540134948e-14</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0005452926945917669</v>
+        <v>0.003438992270105985</v>
       </c>
       <c r="T19" t="n">
-        <v>0.004372605630532709</v>
+        <v>0.001190807684325482</v>
       </c>
       <c r="U19" t="n">
-        <v>2.220172674699054e-14</v>
+        <v>2.220263540134948e-14</v>
       </c>
       <c r="V19" t="n">
-        <v>0.9687903084082942</v>
+        <v>0.9927386218270029</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -1999,231 +1999,231 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RUG466.fasta</t>
+          <t>RUG748.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.992291796919379e-10</v>
+        <v>2.646085856718771e-08</v>
       </c>
       <c r="C20" t="n">
-        <v>2.429568286699837e-05</v>
+        <v>1.91190840934644e-08</v>
       </c>
       <c r="D20" t="n">
-        <v>1.076726872791772e-07</v>
+        <v>1.682472246093708e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>2.21999108714543e-14</v>
+        <v>1.14110278956034e-08</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001408311876165112</v>
+        <v>0.0001410875315120223</v>
       </c>
       <c r="G20" t="n">
-        <v>1.804922108612881e-05</v>
+        <v>3.399873724977414e-08</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04084971874268396</v>
+        <v>0.0001008664804688908</v>
       </c>
       <c r="I20" t="n">
-        <v>2.21999108714543e-14</v>
+        <v>2.219891217194026e-14</v>
       </c>
       <c r="J20" t="n">
-        <v>1.092223630998182e-09</v>
+        <v>2.219891217194026e-14</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0004062187271764468</v>
+        <v>4.356737968273114e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001975299088638035</v>
+        <v>0.9558334922068057</v>
       </c>
       <c r="M20" t="n">
-        <v>1.961258714814246e-07</v>
+        <v>0.002088755773516826</v>
       </c>
       <c r="N20" t="n">
-        <v>0.002039520560016819</v>
+        <v>0.04173699017829244</v>
       </c>
       <c r="O20" t="n">
-        <v>6.981300903519197e-07</v>
+        <v>6.462107550753136e-09</v>
       </c>
       <c r="P20" t="n">
-        <v>2.21999108714543e-14</v>
+        <v>2.219891217194026e-14</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.21999108714543e-14</v>
+        <v>2.219891217194026e-14</v>
       </c>
       <c r="R20" t="n">
-        <v>2.21999108714543e-14</v>
+        <v>2.219891217194026e-14</v>
       </c>
       <c r="S20" t="n">
-        <v>0.955054786549278</v>
+        <v>5.111090083199543e-05</v>
       </c>
       <c r="T20" t="n">
-        <v>5.64811627577929e-07</v>
+        <v>3.86384971623999e-06</v>
       </c>
       <c r="U20" t="n">
-        <v>2.21999108714543e-14</v>
+        <v>2.219891217194026e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0.955054786549278</v>
+        <v>0.9558334922068057</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>p__Thermoplasmatota</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>p__Thermoplasmatota</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RUG525.fasta</t>
+          <t>RUG780.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.04890932885955357</v>
+        <v>6.319913242694063e-08</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04918877211540556</v>
+        <v>6.837009674184028e-07</v>
       </c>
       <c r="D21" t="n">
-        <v>0.04890932942938056</v>
+        <v>1.932933282381695e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04890932886443618</v>
+        <v>4.527467860500813e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04897304079654025</v>
+        <v>6.614385857026849e-05</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04893208397636921</v>
+        <v>2.711895684771022e-09</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05623386701813532</v>
+        <v>0.0002137530887189822</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04890932885832359</v>
+        <v>2.2201797516523e-14</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04890932885843591</v>
+        <v>2.2201797516523e-14</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04892051487385059</v>
+        <v>3.616977438621081e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04892141687285088</v>
+        <v>0.9937195228246257</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04905866356010177</v>
+        <v>0.0004050031804815363</v>
       </c>
       <c r="N21" t="n">
-        <v>0.05634892748242924</v>
+        <v>9.918615397645975e-05</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04891532193017468</v>
+        <v>3.684942362948255e-07</v>
       </c>
       <c r="P21" t="n">
-        <v>0.04890932885856388</v>
+        <v>2.2201797516523e-14</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.04890932885832348</v>
+        <v>2.2201797516523e-14</v>
       </c>
       <c r="R21" t="n">
-        <v>0.04890932885832348</v>
+        <v>2.2201797516523e-14</v>
       </c>
       <c r="S21" t="n">
-        <v>0.05527393565714443</v>
+        <v>0.004961082495059213</v>
       </c>
       <c r="T21" t="n">
-        <v>0.04904949541333425</v>
+        <v>0.0004915601166737003</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0489093288583234</v>
+        <v>2.2201797516523e-14</v>
       </c>
       <c r="V21" t="n">
-        <v>0.05634892748242924</v>
+        <v>0.9937195228246257</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>p__Nanoarchaeota</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>p__Nanoarchaeota(reject)</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RUG526.fasta</t>
+          <t>RUG787.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.734483335466696e-08</v>
+        <v>3.480092778444593e-09</v>
       </c>
       <c r="C22" t="n">
-        <v>1.861707716574436e-06</v>
+        <v>1.382898218164925e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>5.119311933664576e-06</v>
+        <v>2.437529979644665e-07</v>
       </c>
       <c r="E22" t="n">
-        <v>1.855152241353887e-06</v>
+        <v>2.753016068225564e-11</v>
       </c>
       <c r="F22" t="n">
-        <v>3.461301579428508e-05</v>
+        <v>6.478804432576083e-06</v>
       </c>
       <c r="G22" t="n">
-        <v>5.973878797193723e-10</v>
+        <v>4.750936974278278e-10</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001573591022843654</v>
+        <v>0.03734097179147373</v>
       </c>
       <c r="I22" t="n">
-        <v>2.220273155260283e-14</v>
+        <v>2.220017912079818e-14</v>
       </c>
       <c r="J22" t="n">
-        <v>2.220273155260283e-14</v>
+        <v>2.940453764166143e-09</v>
       </c>
       <c r="K22" t="n">
-        <v>9.171447837342069e-05</v>
+        <v>0.0001832996338637804</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9916805453443425</v>
+        <v>0.9586521987310521</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0001787747541145125</v>
+        <v>3.462349769980844e-05</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0001724360125120548</v>
+        <v>0.0001839908298945389</v>
       </c>
       <c r="O22" t="n">
-        <v>2.772814378800684e-08</v>
+        <v>2.283329708668771e-07</v>
       </c>
       <c r="P22" t="n">
-        <v>2.220273155260283e-14</v>
+        <v>2.220017912079818e-14</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.220273155260283e-14</v>
+        <v>2.220017912079818e-14</v>
       </c>
       <c r="R22" t="n">
-        <v>2.220273155260283e-14</v>
+        <v>2.220017912079818e-14</v>
       </c>
       <c r="S22" t="n">
-        <v>0.004458493166913974</v>
+        <v>0.003487867174773163</v>
       </c>
       <c r="T22" t="n">
-        <v>0.001800890362715853</v>
+        <v>9.626154537830128e-05</v>
       </c>
       <c r="U22" t="n">
-        <v>2.220273155260283e-14</v>
+        <v>2.220017912079818e-14</v>
       </c>
       <c r="V22" t="n">
-        <v>0.9916805453443425</v>
+        <v>0.9586521987310521</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2239,1278 +2239,318 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>RUG545.fasta</t>
+          <t>RUG791.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.04600938914908e-08</v>
+        <v>0.0001260237767765578</v>
       </c>
       <c r="C23" t="n">
-        <v>1.787083543540845e-06</v>
+        <v>1.080284619345071e-08</v>
       </c>
       <c r="D23" t="n">
-        <v>2.667165010237286e-06</v>
+        <v>3.936141917712434e-07</v>
       </c>
       <c r="E23" t="n">
-        <v>2.485831799212646e-10</v>
+        <v>2.240529915736187e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>4.492760403725934e-05</v>
+        <v>0.08348835838794448</v>
       </c>
       <c r="G23" t="n">
-        <v>2.573783391160304e-10</v>
+        <v>8.948743933309302e-09</v>
       </c>
       <c r="H23" t="n">
-        <v>0.008320292139284905</v>
+        <v>0.0004788124654721553</v>
       </c>
       <c r="I23" t="n">
-        <v>2.220353603391988e-14</v>
+        <v>2.240529915736187e-14</v>
       </c>
       <c r="J23" t="n">
-        <v>2.400014014089944e-13</v>
+        <v>2.240529915736187e-14</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001950722502872805</v>
+        <v>0.2964847416172486</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9846320568359698</v>
+        <v>6.22489679571815e-14</v>
       </c>
       <c r="M23" t="n">
-        <v>2.786111991119186e-05</v>
+        <v>1.185301126392055e-06</v>
       </c>
       <c r="N23" t="n">
-        <v>2.422312707982798e-05</v>
+        <v>7.146868506723868e-10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.401925739074252e-07</v>
+        <v>1.90814815093951e-10</v>
       </c>
       <c r="P23" t="n">
-        <v>2.220353603391988e-14</v>
+        <v>2.240529915736187e-14</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.220353603391988e-14</v>
+        <v>2.240529915736187e-14</v>
       </c>
       <c r="R23" t="n">
-        <v>2.220353603391988e-14</v>
+        <v>2.240529915736187e-14</v>
       </c>
       <c r="S23" t="n">
-        <v>0.006380067639565748</v>
+        <v>0.008846695843945315</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0003708938763299911</v>
+        <v>0.6105737683359836</v>
       </c>
       <c r="U23" t="n">
-        <v>2.220353603391988e-14</v>
+        <v>2.240529915736187e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0.9846320568359698</v>
+        <v>0.6105737683359836</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>p__Methanobacteriota</t>
+          <t>p__Thermoproteota</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>p__Methanobacteriota</t>
+          <t>p__Thermoproteota(reject)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>RUG567.fasta</t>
+          <t>RUG823.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.24805517201927e-09</v>
+        <v>1.52522397947634e-09</v>
       </c>
       <c r="C24" t="n">
-        <v>2.518021067214264e-05</v>
+        <v>1.266823727665324e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>2.09372269611983e-07</v>
+        <v>4.111502832154444e-07</v>
       </c>
       <c r="E24" t="n">
-        <v>2.220195686721951e-14</v>
+        <v>3.289095602677694e-10</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00224045627475925</v>
+        <v>1.347929935869284e-05</v>
       </c>
       <c r="G24" t="n">
-        <v>1.085519367709085e-05</v>
+        <v>9.725240578917935e-10</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03354585714568808</v>
+        <v>0.04448420474715666</v>
       </c>
       <c r="I24" t="n">
-        <v>2.220195686721951e-14</v>
+        <v>2.219851704138411e-14</v>
       </c>
       <c r="J24" t="n">
-        <v>3.677463292337504e-09</v>
+        <v>1.711876866857913e-10</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001015316763675097</v>
+        <v>3.043215684248084e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001792083189432197</v>
+        <v>0.9536807583920967</v>
       </c>
       <c r="M24" t="n">
-        <v>3.402598409853429e-07</v>
+        <v>7.464241738876776e-05</v>
       </c>
       <c r="N24" t="n">
-        <v>0.002004552662863204</v>
+        <v>0.0001435108301597708</v>
       </c>
       <c r="O24" t="n">
-        <v>1.194284379258634e-06</v>
+        <v>4.075726917245435e-08</v>
       </c>
       <c r="P24" t="n">
-        <v>2.220195686721951e-14</v>
+        <v>2.219851704138411e-14</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.220195686721951e-14</v>
+        <v>2.219851704138411e-14</v>
       </c>
       <c r="R24" t="n">
-        <v>2.220195686721951e-14</v>
+        <v>2.219851704138411e-14</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9609761361944807</v>
+        <v>0.001512793006428996</v>
       </c>
       <c r="T24" t="n">
-        <v>6.853930997543494e-07</v>
+        <v>4.705600778278484e-05</v>
       </c>
       <c r="U24" t="n">
-        <v>2.220195686721951e-14</v>
+        <v>2.219851704138411e-14</v>
       </c>
       <c r="V24" t="n">
-        <v>0.9609761361944807</v>
+        <v>0.9536807583920967</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>p__Thermoplasmatota</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>p__Thermoplasmatota</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>RUG568.fasta</t>
+          <t>RUG833.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.007437035216631644</v>
+        <v>1.018998309368863e-07</v>
       </c>
       <c r="C25" t="n">
-        <v>2.163334630749088e-05</v>
+        <v>3.963565813679705e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>3.740211042833196e-08</v>
+        <v>4.299612224976839e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>5.588100169465557e-13</v>
+        <v>8.875625354933635e-07</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00142222696799098</v>
+        <v>6.527648871441855e-06</v>
       </c>
       <c r="G25" t="n">
-        <v>3.146445756137888e-05</v>
+        <v>3.753044175441302e-10</v>
       </c>
       <c r="H25" t="n">
-        <v>0.002464723784025493</v>
+        <v>0.001662105931392749</v>
       </c>
       <c r="I25" t="n">
-        <v>2.220412768077958e-14</v>
+        <v>2.220322010909916e-14</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001615771631887152</v>
+        <v>1.064181266468158e-12</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01192383999489582</v>
+        <v>9.786521170715517e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003547580426913243</v>
+        <v>0.9838223178814616</v>
       </c>
       <c r="M25" t="n">
-        <v>2.365725443581578e-06</v>
+        <v>0.0001699896124334926</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0006773971266955947</v>
+        <v>0.0002496271299718912</v>
       </c>
       <c r="O25" t="n">
-        <v>1.119770833497987e-05</v>
+        <v>3.469752704302623e-08</v>
       </c>
       <c r="P25" t="n">
-        <v>2.220412768077958e-14</v>
+        <v>2.220322010909916e-14</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.220412768077958e-14</v>
+        <v>2.220322010909916e-14</v>
       </c>
       <c r="R25" t="n">
-        <v>2.220412768077958e-14</v>
+        <v>2.220322010909916e-14</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9754242962201602</v>
+        <v>0.009617287134065717</v>
       </c>
       <c r="T25" t="n">
-        <v>6.744684329250288e-05</v>
+        <v>0.004329319643361112</v>
       </c>
       <c r="U25" t="n">
-        <v>2.220412768077958e-14</v>
+        <v>2.220322010909916e-14</v>
       </c>
       <c r="V25" t="n">
-        <v>0.9754242962201602</v>
+        <v>0.9838223178814616</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>p__Thermoplasmatota</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>p__Thermoplasmatota</t>
+          <t>p__Methanobacteriota</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>RUG593.fasta</t>
+          <t>hRUG898.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.155745706621975e-08</v>
+        <v>4.255355860393748e-12</v>
       </c>
       <c r="C26" t="n">
-        <v>1.126231649410609e-05</v>
+        <v>8.358946943281402e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>3.000979449049378e-07</v>
+        <v>2.473696227398744e-11</v>
       </c>
       <c r="E26" t="n">
-        <v>8.674047643389855e-11</v>
+        <v>2.220271286069042e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>1.194218021529145e-05</v>
+        <v>0.001993223326824262</v>
       </c>
       <c r="G26" t="n">
-        <v>5.133984971511182e-10</v>
+        <v>0.0009516870942138611</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02014161030629942</v>
+        <v>0.00866860412013765</v>
       </c>
       <c r="I26" t="n">
-        <v>2.220232504852707e-14</v>
+        <v>2.220271286069042e-14</v>
       </c>
       <c r="J26" t="n">
-        <v>2.946303272305521e-10</v>
+        <v>1.954824835149053e-08</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0003012397122384943</v>
+        <v>0.0003335780793385881</v>
       </c>
       <c r="L26" t="n">
-        <v>0.974950650558261</v>
+        <v>0.000171022606713455</v>
       </c>
       <c r="M26" t="n">
-        <v>5.996064164354387e-05</v>
+        <v>0.0001475569259676677</v>
       </c>
       <c r="N26" t="n">
-        <v>9.424617979574919e-05</v>
+        <v>7.941097170613931e-05</v>
       </c>
       <c r="O26" t="n">
-        <v>2.625283362863982e-07</v>
+        <v>2.427851676476279e-06</v>
       </c>
       <c r="P26" t="n">
-        <v>2.220232504852707e-14</v>
+        <v>2.220271286069042e-14</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.220232504852707e-14</v>
+        <v>2.220271286069042e-14</v>
       </c>
       <c r="R26" t="n">
-        <v>2.220232504852707e-14</v>
+        <v>2.220271286069042e-14</v>
       </c>
       <c r="S26" t="n">
-        <v>0.004216030007548715</v>
+        <v>0.9875596843829914</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0002124830188852105</v>
+        <v>9.195593623670088e-06</v>
       </c>
       <c r="U26" t="n">
-        <v>2.220232504852707e-14</v>
+        <v>2.220271286069042e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0.974950650558261</v>
+        <v>0.9875596843829914</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>p__Methanobacteriota</t>
+          <t>p__Thermoplasmatota</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
-        <is>
-          <t>p__Methanobacteriota</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>RUG642.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1.524034751533635e-10</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.0001898003703641893</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1.617694905219741e-07</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2.689824813602395e-14</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.003300991163375571</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5.687050417764876e-05</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.08498718660898985</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.689824813602395e-14</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.397588035935525e-10</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.0005563775315847277</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.0003858007417025302</v>
-      </c>
-      <c r="M27" t="n">
-        <v>3.432386540172636e-06</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.01913941239635905</v>
-      </c>
-      <c r="O27" t="n">
-        <v>6.551281211432759e-07</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.689824813602395e-14</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.689824813602395e-14</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.689824813602395e-14</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0.8913776835911377</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.627215833483637e-06</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.689824813602395e-14</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.8913776835911377</v>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>p__Thermoplasmatota</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>p__Thermoplasmatota</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>RUG648.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>9.911712327759546e-08</v>
-      </c>
-      <c r="C28" t="n">
-        <v>4.18501664320087e-08</v>
-      </c>
-      <c r="D28" t="n">
-        <v>4.09372259021868e-05</v>
-      </c>
-      <c r="E28" t="n">
-        <v>8.271024677157116e-09</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.0002765588293247827</v>
-      </c>
-      <c r="G28" t="n">
-        <v>4.702423234874628e-10</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.001711962388693072</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.220283208860405e-14</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.220283208860405e-14</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.000381550164263697</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.9918547326462861</v>
-      </c>
-      <c r="M28" t="n">
-        <v>8.415082960048801e-05</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1.11929912992319e-05</v>
-      </c>
-      <c r="O28" t="n">
-        <v>3.978086393561072e-07</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.220283208860405e-14</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.220283208860405e-14</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.220283208860405e-14</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.003885835084759621</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.001752532322541613</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.220283208860405e-14</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0.9918547326462861</v>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>p__Methanobacteriota</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>p__Methanobacteriota</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>RUG675.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1.905475255104001e-11</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.0001452820742122531</v>
-      </c>
-      <c r="D29" t="n">
-        <v>9.267030500568415e-08</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2.220302462950121e-14</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.002717528138462108</v>
-      </c>
-      <c r="G29" t="n">
-        <v>4.680956092651243e-05</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.08018548412467977</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.220302462950121e-14</v>
-      </c>
-      <c r="J29" t="n">
-        <v>7.451189347353991e-11</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.0001850698695277929</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.0002415577312869782</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.343490814295738e-06</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.006273992560596433</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2.900196894370678e-07</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.220302462950121e-14</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.220302462950121e-14</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.220302462950121e-14</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0.9102012740099553</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.275655844173599e-06</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.220302462950121e-14</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.9102012740099553</v>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>p__Thermoplasmatota</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>p__Thermoplasmatota</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>RUG703.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.02017552679605122</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.01940760619365469</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4.125123846888028e-05</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.001031002941787294</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.001074739023582304</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.0003234639150843746</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.04871123744420369</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.572815855307493e-12</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.0005007162525078413</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.03379968825289195</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.0005033895457673283</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.006696743434014817</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.3485227380546631</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.1230452854334834</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.572815855308058e-12</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.572815855307494e-12</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.572815855307494e-12</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.3465306237119509</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0.04963598775402421</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.572815855307494e-12</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0.3485227380546631</v>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>p__Nanoarchaeota</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>p__Nanoarchaeota(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>RUG707.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.00196101742676784</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1.430147887992581e-05</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2.060842397227469e-08</v>
-      </c>
-      <c r="E31" t="n">
-        <v>4.674654809889635e-14</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.001470852274075692</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3.944017852358833e-05</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.003715020063594353</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.220349851199435e-14</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.0001027735869832139</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.01210922695966282</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.0003070287306543073</v>
-      </c>
-      <c r="M31" t="n">
-        <v>3.703454069555e-06</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.0003558469526393042</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.085535000733557e-05</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.220349851199435e-14</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.220349851199435e-14</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.220349851199435e-14</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.9798031868345908</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0.0001067261009694067</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.220349851199435e-14</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.9798031868345908</v>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>p__Thermoplasmatota</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>p__Thermoplasmatota</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>RUG748.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1.680101872673611e-08</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1.564232954454367e-07</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1.561308493604057e-07</v>
-      </c>
-      <c r="E32" t="n">
-        <v>3.063872651403228e-09</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.0001362269742101319</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2.071769947557569e-08</v>
-      </c>
-      <c r="H32" t="n">
-        <v>8.448537555181201e-05</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.219947432584362e-14</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.219947432584362e-14</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.0001438560916202766</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.951288940771906</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.003715173719459485</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.04450960453343062</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.700077018093117e-08</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.219947432584362e-14</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.219947432584362e-14</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2.219947432584362e-14</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.0001139158891133019</v>
-      </c>
-      <c r="T32" t="n">
-        <v>7.426507069537299e-06</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.219947432584362e-14</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0.951288940771906</v>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>p__Methanobacteriota</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>p__Methanobacteriota</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>RUG779.fasta</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>2.674424861700806e-12</v>
-      </c>
-      <c r="C33" t="n">
-        <v>4.594307815925441e-05</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.178322850923892e-11</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2.220246144208538e-14</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.000912363038345991</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.001078239081196121</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.00658714214993004</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.220246144208538e-14</v>
-      </c>
-      <c r="J33" t="n">
-        <v>8.926281043880069e-08</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.0002672579554969137</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.0001951864897731495</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.0001913851881203803</v>
-      </c>
-      <c r="N33" t="n">
-        <v>7.628633441231255e-05</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.505123483464423e-06</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.220246144208538e-14</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.220246144208538e-14</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2.220246144208538e-14</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.9906421649502096</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.437333471427292e-06</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.220246144208538e-14</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0.9906421649502096</v>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>p__Thermoplasmatota</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>p__Thermoplasmatota</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>RUG780.fasta</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>5.767892975377219e-08</v>
-      </c>
-      <c r="C34" t="n">
-        <v>7.802224565503924e-07</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1.30594272527501e-06</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2.731581209240325e-06</v>
-      </c>
-      <c r="F34" t="n">
-        <v>7.445786832360683e-05</v>
-      </c>
-      <c r="G34" t="n">
-        <v>5.917804963657528e-09</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.0002290192928826134</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.220168797072992e-14</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.220168797072992e-14</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.742524404591186e-05</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.9945629661642282</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.0001917759582902311</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.0001579237330067341</v>
-      </c>
-      <c r="O34" t="n">
-        <v>2.39688496776047e-07</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.220168797072992e-14</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.220168797072992e-14</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.220168797072992e-14</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.00420968066332734</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.0005216300441397246</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.220168797072992e-14</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0.9945629661642282</v>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>p__Methanobacteriota</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>p__Methanobacteriota</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>RUG787.fasta</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>3.121362882960645e-09</v>
-      </c>
-      <c r="C35" t="n">
-        <v>7.734658206790784e-06</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2.295590944644782e-07</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2.071149159435817e-11</v>
-      </c>
-      <c r="F35" t="n">
-        <v>3.502875813288415e-06</v>
-      </c>
-      <c r="G35" t="n">
-        <v>4.301660686526975e-10</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.03049406673858128</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.220100285243185e-14</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.056074321165911e-09</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.0002027134523404886</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.9650601243293876</v>
-      </c>
-      <c r="M35" t="n">
-        <v>3.157200880904089e-05</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.0002769581576868635</v>
-      </c>
-      <c r="O35" t="n">
-        <v>5.846426194354719e-07</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.220100285243185e-14</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.220100285243185e-14</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.220100285243185e-14</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.003818710476372702</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.0001037964726623077</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2.220100285243185e-14</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0.9650601243293876</v>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>p__Methanobacteriota</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>p__Methanobacteriota</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>RUG791.fasta</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>9.951508808595023e-05</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.121610946411785e-08</v>
-      </c>
-      <c r="D36" t="n">
-        <v>3.694290849295116e-07</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2.240880333471862e-14</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.09069761509152349</v>
-      </c>
-      <c r="G36" t="n">
-        <v>8.857959386119682e-09</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.0006217423577452415</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.240880333471862e-14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.240880333471862e-14</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.2926155060840758</v>
-      </c>
-      <c r="L36" t="n">
-        <v>5.345373518489729e-14</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.613652414361141e-06</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1.442484079197736e-09</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.52599404437791e-10</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.240880333471862e-14</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.240880333471862e-14</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.240880333471862e-14</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.0062881511930943</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.6096754654346134</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2.240880333471862e-14</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0.6096754654346134</v>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>p__Thermoproteota</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>p__Thermoproteota(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>RUG823.fasta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2.384308123923672e-09</v>
-      </c>
-      <c r="C37" t="n">
-        <v>8.477708806108798e-06</v>
-      </c>
-      <c r="D37" t="n">
-        <v>6.251927968399596e-07</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1.771287319844701e-10</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.608127423748519e-05</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1.373538971842723e-09</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.04966301340054383</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.219804531177496e-14</v>
-      </c>
-      <c r="J37" t="n">
-        <v>4.260618301959817e-10</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1.931304569979917e-05</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.949292285631656</v>
-      </c>
-      <c r="M37" t="n">
-        <v>7.821582208113976e-05</v>
-      </c>
-      <c r="N37" t="n">
-        <v>9.45549679299679e-05</v>
-      </c>
-      <c r="O37" t="n">
-        <v>5.211805695578275e-08</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.219804531177496e-14</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.219804531177496e-14</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.219804531177496e-14</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.000757731831677196</v>
-      </c>
-      <c r="T37" t="n">
-        <v>6.964464536589923e-05</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.219804531177496e-14</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0.949292285631656</v>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>p__Methanobacteriota</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>p__Methanobacteriota</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>hRUG898.fasta</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1.073224489478598e-11</v>
-      </c>
-      <c r="C38" t="n">
-        <v>6.71137940435849e-05</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2.780270868940742e-11</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2.220261043650995e-14</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.001778787553116023</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.0008796529144098262</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.00821848948574082</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.220261043650995e-14</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5.673109947123842e-08</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.0002575703957125196</v>
-      </c>
-      <c r="L38" t="n">
-        <v>9.097880585886035e-05</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0001471055912237963</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.0001005451345840893</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2.589317812428999e-06</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2.220261043650995e-14</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.220261043650995e-14</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2.220261043650995e-14</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0.9884495688549659</v>
-      </c>
-      <c r="T38" t="n">
-        <v>7.541382764507629e-06</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.220261043650995e-14</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0.9884495688549659</v>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>p__Thermoplasmatota</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
         <is>
           <t>p__Thermoplasmatota</t>
         </is>
